--- a/题库数据/问答题题库（修改）.xlsx
+++ b/题库数据/问答题题库（修改）.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\misaka\DatabaseCourse\题库数据\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAEB048-B681-4804-9770-ECF4A2D0EE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,75 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="130">
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>题型</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>题干</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>正确答案</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
     <t>题目解析</t>
   </si>
   <si>
@@ -199,9 +136,6 @@
   </si>
   <si>
     <t>（概论）简述冯诺伊曼机的特点。</t>
-  </si>
-  <si>
-    <t>1.计算机由运算器、存储器、控制器和输入设备、输出设备五大部件组成； 2.程序以二进制代码的形式表示； 3.程序存放于存储器中，按地址访存； 4.所有的指令都由操作码和地址码组成； 5.指令在存储器内按顺序存放； 6.以运算器为计算机结构的中心。</t>
   </si>
   <si>
     <t>（概论）计算的性能能被准确测量吗？</t>
@@ -745,19 +679,31 @@
     若采用程序直接控制方式，CPU工作时间1s*0.2%=2ms       
                                  CPU等待时间=1000ms-2ms=998ms</t>
   </si>
+  <si>
+    <t>题型</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目内容</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.计算机由运算器、存储器、控制器和输入设备、输出设备五大部件组成； 2.程序以二进制代码的形式表示； 3.程序存放于存储器中，按地址访存； 4.所有的指令都由操作码和地址码组成； 5.指令在存储器内按顺序存放； 6.以运算器为计算机结构的中心。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,6 +716,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -778,6 +725,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -786,6 +734,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -793,203 +742,63 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9.5"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -998,13 +807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1032,188 +841,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1221,251 +850,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1473,16 +860,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1491,13 +878,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1582,61 +969,17 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1894,154 +1237,154 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G20" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.86666666666667" customWidth="1"/>
-    <col min="2" max="2" width="104.558333333333" customWidth="1"/>
-    <col min="3" max="3" width="53.4333333333333" customWidth="1"/>
-    <col min="4" max="4" width="45.2166666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.35" customWidth="1"/>
-    <col min="6" max="6" width="15.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="11.7833333333333" customWidth="1"/>
-    <col min="8" max="8" width="11.65" customWidth="1"/>
-    <col min="9" max="9" width="16.8666666666667" customWidth="1"/>
-    <col min="10" max="10" width="17.2166666666667" customWidth="1"/>
-    <col min="18" max="19" width="12.5"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="104.5546875" customWidth="1"/>
+    <col min="3" max="3" width="53.44140625" customWidth="1"/>
+    <col min="4" max="4" width="45.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" customWidth="1"/>
+    <col min="18" max="19" width="12.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:39">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="R1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="S1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="T1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="AL1" s="9"/>
       <c r="AM1" s="9"/>
     </row>
-    <row r="2" customFormat="1" spans="1:43">
+    <row r="2" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -2062,7 +1405,7 @@
         <v>10</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -2089,12 +1432,12 @@
       <c r="AP2" s="5"/>
       <c r="AQ2" s="5"/>
     </row>
-    <row r="3" customFormat="1" spans="1:43">
+    <row r="3" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2115,7 +1458,7 @@
         <v>10</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -2142,12 +1485,12 @@
       <c r="AP3" s="5"/>
       <c r="AQ3" s="5"/>
     </row>
-    <row r="4" ht="12" customHeight="1" spans="1:43">
+    <row r="4" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -2168,7 +1511,7 @@
         <v>10</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
@@ -2195,12 +1538,12 @@
       <c r="AP4" s="5"/>
       <c r="AQ4" s="5"/>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2221,7 +1564,7 @@
         <v>10</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -2248,12 +1591,12 @@
       <c r="AP5" s="5"/>
       <c r="AQ5" s="5"/>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2274,7 +1617,7 @@
         <v>10</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -2301,12 +1644,12 @@
       <c r="AP6" s="5"/>
       <c r="AQ6" s="5"/>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2327,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -2354,12 +1697,12 @@
       <c r="AP7" s="5"/>
       <c r="AQ7" s="5"/>
     </row>
-    <row r="8" ht="85.5" spans="1:43">
+    <row r="8" spans="1:43" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2380,7 +1723,7 @@
         <v>10</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
@@ -2407,12 +1750,12 @@
       <c r="AP8" s="5"/>
       <c r="AQ8" s="5"/>
     </row>
-    <row r="9" ht="42.75" spans="1:43">
+    <row r="9" spans="1:43" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2433,7 +1776,7 @@
         <v>10</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -2460,12 +1803,12 @@
       <c r="AP9" s="5"/>
       <c r="AQ9" s="5"/>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2486,7 +1829,7 @@
         <v>10</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -2513,12 +1856,12 @@
       <c r="AP10" s="5"/>
       <c r="AQ10" s="5"/>
     </row>
-    <row r="11" ht="40" customHeight="1" spans="1:43">
+    <row r="11" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2539,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
@@ -2566,12 +1909,12 @@
       <c r="AP11" s="5"/>
       <c r="AQ11" s="5"/>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2592,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -2619,12 +1962,12 @@
       <c r="AP12" s="5"/>
       <c r="AQ12" s="5"/>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2643,7 +1986,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -2670,12 +2013,12 @@
       <c r="AP13" s="5"/>
       <c r="AQ13" s="5"/>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2696,7 +2039,7 @@
         <v>10</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -2723,12 +2066,12 @@
       <c r="AP14" s="5"/>
       <c r="AQ14" s="5"/>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2749,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -2776,12 +2119,12 @@
       <c r="AP15" s="5"/>
       <c r="AQ15" s="5"/>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2802,7 +2145,7 @@
         <v>10</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -2829,12 +2172,12 @@
       <c r="AP16" s="5"/>
       <c r="AQ16" s="5"/>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2855,7 +2198,7 @@
         <v>10</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -2882,12 +2225,12 @@
       <c r="AP17" s="5"/>
       <c r="AQ17" s="5"/>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2908,7 +2251,7 @@
         <v>10</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -2935,12 +2278,12 @@
       <c r="AP18" s="5"/>
       <c r="AQ18" s="5"/>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2961,7 +2304,7 @@
         <v>10</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -2988,12 +2331,12 @@
       <c r="AP19" s="5"/>
       <c r="AQ19" s="5"/>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -3014,7 +2357,7 @@
         <v>10</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -3041,12 +2384,12 @@
       <c r="AP20" s="5"/>
       <c r="AQ20" s="5"/>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -3067,7 +2410,7 @@
         <v>10</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -3094,12 +2437,12 @@
       <c r="AP21" s="5"/>
       <c r="AQ21" s="5"/>
     </row>
-    <row r="22" ht="16.2" customHeight="1" spans="1:43">
+    <row r="22" spans="1:43" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -3120,7 +2463,7 @@
         <v>10</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -3138,7 +2481,7 @@
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
       <c r="AI22" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
@@ -3149,12 +2492,12 @@
       <c r="AP22" s="5"/>
       <c r="AQ22" s="5"/>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -3175,7 +2518,7 @@
         <v>10</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -3202,12 +2545,12 @@
       <c r="AP23" s="5"/>
       <c r="AQ23" s="5"/>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -3228,7 +2571,7 @@
         <v>10</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -3255,12 +2598,12 @@
       <c r="AP24" s="5"/>
       <c r="AQ24" s="5"/>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -3281,7 +2624,7 @@
         <v>10</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -3308,12 +2651,12 @@
       <c r="AP25" s="5"/>
       <c r="AQ25" s="5"/>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -3334,7 +2677,7 @@
         <v>10</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -3361,12 +2704,12 @@
       <c r="AP26" s="5"/>
       <c r="AQ26" s="5"/>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -3387,7 +2730,7 @@
         <v>10</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -3414,12 +2757,12 @@
       <c r="AP27" s="5"/>
       <c r="AQ27" s="5"/>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -3440,7 +2783,7 @@
         <v>10</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
@@ -3467,12 +2810,12 @@
       <c r="AP28" s="5"/>
       <c r="AQ28" s="5"/>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -3493,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -3520,12 +2863,12 @@
       <c r="AP29" s="5"/>
       <c r="AQ29" s="5"/>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -3546,7 +2889,7 @@
         <v>10</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
@@ -3573,12 +2916,12 @@
       <c r="AP30" s="5"/>
       <c r="AQ30" s="5"/>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:43">
+    <row r="31" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -3599,7 +2942,7 @@
         <v>10</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -3626,12 +2969,12 @@
       <c r="AP31" s="5"/>
       <c r="AQ31" s="5"/>
     </row>
-    <row r="32" ht="15.65" customHeight="1" spans="1:43">
+    <row r="32" spans="1:43" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -3652,7 +2995,7 @@
         <v>10</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -3679,12 +3022,12 @@
       <c r="AP32" s="5"/>
       <c r="AQ32" s="5"/>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -3705,7 +3048,7 @@
         <v>10</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
@@ -3732,12 +3075,12 @@
       <c r="AP33" s="5"/>
       <c r="AQ33" s="5"/>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3758,7 +3101,7 @@
         <v>10</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
@@ -3785,12 +3128,12 @@
       <c r="AP34" s="5"/>
       <c r="AQ34" s="5"/>
     </row>
-    <row r="35" ht="16" customHeight="1" spans="1:43">
+    <row r="35" spans="1:43" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -3811,7 +3154,7 @@
         <v>10</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
@@ -3838,12 +3181,12 @@
       <c r="AP35" s="5"/>
       <c r="AQ35" s="5"/>
     </row>
-    <row r="36" ht="14" customHeight="1" spans="1:43">
+    <row r="36" spans="1:43" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -3864,7 +3207,7 @@
         <v>10</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
@@ -3891,12 +3234,12 @@
       <c r="AP36" s="5"/>
       <c r="AQ36" s="5"/>
     </row>
-    <row r="37" ht="14" customHeight="1" spans="1:43">
+    <row r="37" spans="1:43" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -3917,7 +3260,7 @@
         <v>10</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
@@ -3944,12 +3287,12 @@
       <c r="AP37" s="5"/>
       <c r="AQ37" s="5"/>
     </row>
-    <row r="38" ht="17" customHeight="1" spans="1:43">
+    <row r="38" spans="1:43" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -3970,7 +3313,7 @@
         <v>10</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
@@ -3997,12 +3340,12 @@
       <c r="AP38" s="5"/>
       <c r="AQ38" s="5"/>
     </row>
-    <row r="39" ht="30" customHeight="1" spans="1:43">
+    <row r="39" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -4023,7 +3366,7 @@
         <v>10</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -4050,12 +3393,12 @@
       <c r="AP39" s="5"/>
       <c r="AQ39" s="5"/>
     </row>
-    <row r="40" ht="31" customHeight="1" spans="1:43">
+    <row r="40" spans="1:43" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -4076,7 +3419,7 @@
         <v>10</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -4103,12 +3446,12 @@
       <c r="AP40" s="5"/>
       <c r="AQ40" s="5"/>
     </row>
-    <row r="41" ht="60" customHeight="1" spans="1:43">
+    <row r="41" spans="1:43" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -4129,7 +3472,7 @@
         <v>10</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -4156,12 +3499,12 @@
       <c r="AP41" s="5"/>
       <c r="AQ41" s="5"/>
     </row>
-    <row r="42" ht="71.25" spans="1:43">
+    <row r="42" spans="1:43" ht="78" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -4182,7 +3525,7 @@
         <v>10</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -4209,12 +3552,12 @@
       <c r="AP42" s="5"/>
       <c r="AQ42" s="5"/>
     </row>
-    <row r="43" ht="57" spans="1:43">
+    <row r="43" spans="1:43" ht="78" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -4235,7 +3578,7 @@
         <v>10</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -4262,12 +3605,12 @@
       <c r="AP43" s="5"/>
       <c r="AQ43" s="5"/>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -4288,7 +3631,7 @@
         <v>10</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
@@ -4315,12 +3658,12 @@
       <c r="AP44" s="5"/>
       <c r="AQ44" s="5"/>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -4341,7 +3684,7 @@
         <v>10</v>
       </c>
       <c r="S45" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
@@ -4368,12 +3711,12 @@
       <c r="AP45" s="5"/>
       <c r="AQ45" s="5"/>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -4394,7 +3737,7 @@
         <v>10</v>
       </c>
       <c r="S46" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
@@ -4421,12 +3764,12 @@
       <c r="AP46" s="5"/>
       <c r="AQ46" s="5"/>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -4447,7 +3790,7 @@
         <v>10</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
@@ -4474,12 +3817,12 @@
       <c r="AP47" s="5"/>
       <c r="AQ47" s="5"/>
     </row>
-    <row r="48" ht="57" spans="1:43">
+    <row r="48" spans="1:43" ht="78" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -4500,7 +3843,7 @@
         <v>10</v>
       </c>
       <c r="S48" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
@@ -4527,7 +3870,7 @@
       <c r="AP48" s="5"/>
       <c r="AQ48" s="5"/>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4572,7 +3915,7 @@
       <c r="AP49" s="5"/>
       <c r="AQ49" s="5"/>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -4617,7 +3960,7 @@
       <c r="AP50" s="5"/>
       <c r="AQ50" s="5"/>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4662,7 +4005,7 @@
       <c r="AP51" s="5"/>
       <c r="AQ51" s="5"/>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -4707,7 +4050,7 @@
       <c r="AP52" s="5"/>
       <c r="AQ52" s="5"/>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -4752,7 +4095,7 @@
       <c r="AP53" s="5"/>
       <c r="AQ53" s="5"/>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -4797,7 +4140,7 @@
       <c r="AP54" s="5"/>
       <c r="AQ54" s="5"/>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -4842,7 +4185,7 @@
       <c r="AP55" s="5"/>
       <c r="AQ55" s="5"/>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -4887,7 +4230,7 @@
       <c r="AP56" s="5"/>
       <c r="AQ56" s="5"/>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4932,7 +4275,7 @@
       <c r="AP57" s="5"/>
       <c r="AQ57" s="5"/>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4977,7 +4320,7 @@
       <c r="AP58" s="5"/>
       <c r="AQ58" s="5"/>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -5022,7 +4365,7 @@
       <c r="AP59" s="5"/>
       <c r="AQ59" s="5"/>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -5067,7 +4410,7 @@
       <c r="AP60" s="5"/>
       <c r="AQ60" s="5"/>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -5112,7 +4455,7 @@
       <c r="AP61" s="5"/>
       <c r="AQ61" s="5"/>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -5157,7 +4500,7 @@
       <c r="AP62" s="5"/>
       <c r="AQ62" s="5"/>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -5202,7 +4545,7 @@
       <c r="AP63" s="5"/>
       <c r="AQ63" s="5"/>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -5247,7 +4590,7 @@
       <c r="AP64" s="5"/>
       <c r="AQ64" s="5"/>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -5292,7 +4635,7 @@
       <c r="AP65" s="5"/>
       <c r="AQ65" s="5"/>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -5337,7 +4680,7 @@
       <c r="AP66" s="5"/>
       <c r="AQ66" s="5"/>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -5382,7 +4725,7 @@
       <c r="AP67" s="5"/>
       <c r="AQ67" s="5"/>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -5427,7 +4770,7 @@
       <c r="AP68" s="5"/>
       <c r="AQ68" s="5"/>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -5472,7 +4815,7 @@
       <c r="AP69" s="5"/>
       <c r="AQ69" s="5"/>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -5517,7 +4860,7 @@
       <c r="AP70" s="5"/>
       <c r="AQ70" s="5"/>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -5562,7 +4905,7 @@
       <c r="AP71" s="5"/>
       <c r="AQ71" s="5"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -5574,7 +4917,7 @@
       <c r="I72" s="10"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -5586,7 +4929,7 @@
       <c r="I73" s="10"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -5598,7 +4941,7 @@
       <c r="I74" s="10"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -5610,7 +4953,7 @@
       <c r="I75" s="10"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -5622,7 +4965,7 @@
       <c r="I76" s="10"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -5634,7 +4977,7 @@
       <c r="I77" s="10"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -5646,7 +4989,7 @@
       <c r="I78" s="10"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -5658,7 +5001,7 @@
       <c r="I79" s="10"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -5670,7 +5013,7 @@
       <c r="I80" s="10"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -5682,7 +5025,7 @@
       <c r="I81" s="10"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -5694,7 +5037,7 @@
       <c r="I82" s="10"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -5706,7 +5049,7 @@
       <c r="I83" s="10"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -5718,7 +5061,7 @@
       <c r="I84" s="10"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -5730,7 +5073,7 @@
       <c r="I85" s="10"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -5742,7 +5085,7 @@
       <c r="I86" s="10"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -5754,7 +5097,7 @@
       <c r="I87" s="10"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -5766,7 +5109,7 @@
       <c r="I88" s="10"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -5778,7 +5121,7 @@
       <c r="I89" s="10"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -5790,7 +5133,7 @@
       <c r="I90" s="10"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" ht="15.75" spans="1:10">
+    <row r="91" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -5802,7 +5145,7 @@
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
     </row>
-    <row r="92" ht="15.75" spans="1:10">
+    <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -5814,7 +5157,7 @@
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
     </row>
-    <row r="93" ht="15.75" spans="1:10">
+    <row r="93" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -5826,7 +5169,7 @@
       <c r="I93" s="10"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" ht="15.75" spans="1:10">
+    <row r="94" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -5836,7 +5179,7 @@
       <c r="I94" s="10"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" ht="15.75" spans="1:10">
+    <row r="95" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -5847,7 +5190,7 @@
       <c r="I95" s="10"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" ht="15.75" spans="1:10">
+    <row r="96" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -5859,7 +5202,7 @@
       <c r="I96" s="10"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" ht="15.75" spans="1:10">
+    <row r="97" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -5871,7 +5214,7 @@
       <c r="I97" s="10"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" ht="15.75" spans="1:10">
+    <row r="98" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -5883,7 +5226,7 @@
       <c r="I98" s="10"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" ht="15.75" spans="1:10">
+    <row r="99" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -5895,7 +5238,7 @@
       <c r="I99" s="10"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" ht="15.75" spans="1:10">
+    <row r="100" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -5907,7 +5250,7 @@
       <c r="I100" s="10"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" ht="15.75" spans="1:10">
+    <row r="101" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -5919,7 +5262,7 @@
       <c r="I101" s="10"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" ht="15.75" spans="1:10">
+    <row r="102" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -5931,7 +5274,7 @@
       <c r="I102" s="10"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" ht="15.75" spans="1:10">
+    <row r="103" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -5943,7 +5286,7 @@
       <c r="I103" s="10"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" ht="15.75" spans="1:10">
+    <row r="104" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -5954,7 +5297,7 @@
       <c r="I104" s="10"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" ht="15.75" spans="1:10">
+    <row r="105" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -5962,7 +5305,7 @@
       <c r="I105" s="10"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" ht="15.75" spans="1:10">
+    <row r="106" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -5971,7 +5314,7 @@
       <c r="I106" s="10"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" ht="15.75" spans="1:10">
+    <row r="107" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -5979,7 +5322,7 @@
       <c r="I107" s="10"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" ht="15.75" spans="1:10">
+    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -5991,7 +5334,7 @@
       <c r="I108" s="10"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" ht="15.75" spans="1:10">
+    <row r="109" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -5999,7 +5342,7 @@
       <c r="I109" s="10"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" ht="15.75" spans="1:10">
+    <row r="110" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6011,7 +5354,7 @@
       <c r="I110" s="10"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" ht="15.75" spans="1:10">
+    <row r="111" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6023,7 +5366,7 @@
       <c r="I111" s="10"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" ht="15.75" spans="1:10">
+    <row r="112" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6031,7 +5374,7 @@
       <c r="I112" s="10"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
@@ -6039,7 +5382,7 @@
       <c r="I113" s="10"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" ht="15.75" spans="1:10">
+    <row r="114" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -6047,7 +5390,7 @@
       <c r="I114" s="10"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" ht="15.75" spans="1:10">
+    <row r="115" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -6059,7 +5402,7 @@
       <c r="I115" s="10"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" ht="15.75" spans="1:10">
+    <row r="116" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -6071,7 +5414,7 @@
       <c r="I116" s="10"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" ht="15.75" spans="1:10">
+    <row r="117" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -6083,7 +5426,7 @@
       <c r="I117" s="10"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" ht="15.75" spans="1:10">
+    <row r="118" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -6095,7 +5438,7 @@
       <c r="I118" s="10"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" ht="15.75" spans="1:10">
+    <row r="119" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -6107,7 +5450,7 @@
       <c r="I119" s="10"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" ht="15.75" spans="1:10">
+    <row r="120" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -6119,7 +5462,7 @@
       <c r="I120" s="10"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" ht="15.75" spans="1:10">
+    <row r="121" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -6131,7 +5474,7 @@
       <c r="I121" s="10"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" ht="15.75" spans="1:10">
+    <row r="122" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -6143,7 +5486,7 @@
       <c r="I122" s="10"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" ht="15.75" spans="1:10">
+    <row r="123" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -6155,7 +5498,7 @@
       <c r="I123" s="10"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" ht="15.75" spans="1:10">
+    <row r="124" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -6164,7 +5507,7 @@
       <c r="I124" s="10"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" ht="15.75" spans="1:10">
+    <row r="125" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -6172,7 +5515,7 @@
       <c r="I125" s="10"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" ht="15.75" spans="1:10">
+    <row r="126" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -6184,7 +5527,7 @@
       <c r="I126" s="10"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" ht="15.75" spans="1:10">
+    <row r="127" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -6196,7 +5539,7 @@
       <c r="I127" s="10"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" ht="15.75" spans="1:10">
+    <row r="128" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -6208,7 +5551,7 @@
       <c r="I128" s="10"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" ht="15.75" spans="1:10">
+    <row r="129" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -6220,7 +5563,7 @@
       <c r="I129" s="10"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" ht="15.75" spans="1:10">
+    <row r="130" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -6232,7 +5575,7 @@
       <c r="I130" s="10"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" ht="15.75" spans="1:10">
+    <row r="131" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -6241,7 +5584,7 @@
       <c r="I131" s="10"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" ht="15.75" spans="1:10">
+    <row r="132" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -6253,7 +5596,7 @@
       <c r="I132" s="10"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" ht="15.75" spans="1:10">
+    <row r="133" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -6261,7 +5604,7 @@
       <c r="I133" s="10"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" ht="15.75" spans="1:10">
+    <row r="134" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -6273,7 +5616,7 @@
       <c r="I134" s="10"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" ht="15.75" spans="1:10">
+    <row r="135" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -6285,7 +5628,7 @@
       <c r="I135" s="10"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" ht="15.75" spans="1:10">
+    <row r="136" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -6297,7 +5640,7 @@
       <c r="I136" s="10"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" ht="15.75" spans="1:10">
+    <row r="137" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -6309,7 +5652,7 @@
       <c r="I137" s="10"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" ht="15.75" spans="1:10">
+    <row r="138" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -6321,7 +5664,7 @@
       <c r="I138" s="10"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" ht="15.75" spans="1:10">
+    <row r="139" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -6333,7 +5676,7 @@
       <c r="I139" s="10"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" ht="15.75" spans="1:10">
+    <row r="140" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -6345,7 +5688,7 @@
       <c r="I140" s="10"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" ht="15.75" spans="1:10">
+    <row r="141" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -6357,7 +5700,7 @@
       <c r="I141" s="10"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" ht="15.75" spans="1:10">
+    <row r="142" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -6369,7 +5712,7 @@
       <c r="I142" s="10"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" ht="15.75" spans="1:10">
+    <row r="143" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -6377,7 +5720,7 @@
       <c r="I143" s="10"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" ht="15.75" spans="1:10">
+    <row r="144" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -6389,7 +5732,7 @@
       <c r="I144" s="10"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" ht="15.75" spans="1:10">
+    <row r="145" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -6401,7 +5744,7 @@
       <c r="I145" s="10"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" ht="15.75" spans="1:10">
+    <row r="146" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -6409,7 +5752,7 @@
       <c r="I146" s="10"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" ht="15.75" spans="1:10">
+    <row r="147" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -6417,7 +5760,7 @@
       <c r="I147" s="10"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" ht="15.75" spans="1:10">
+    <row r="148" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -6429,7 +5772,7 @@
       <c r="I148" s="10"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" ht="15.75" spans="1:10">
+    <row r="149" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -6441,7 +5784,7 @@
       <c r="I149" s="10"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" ht="15.75" spans="1:10">
+    <row r="150" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -6453,7 +5796,7 @@
       <c r="I150" s="10"/>
       <c r="J150" s="5"/>
     </row>
-    <row r="151" ht="15.75" spans="1:10">
+    <row r="151" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -6465,7 +5808,7 @@
       <c r="I151" s="10"/>
       <c r="J151" s="5"/>
     </row>
-    <row r="152" ht="15.75" spans="1:10">
+    <row r="152" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -6477,7 +5820,7 @@
       <c r="I152" s="10"/>
       <c r="J152" s="5"/>
     </row>
-    <row r="153" ht="15.75" spans="1:10">
+    <row r="153" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -6489,7 +5832,7 @@
       <c r="I153" s="10"/>
       <c r="J153" s="5"/>
     </row>
-    <row r="154" ht="15.75" spans="1:10">
+    <row r="154" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -6501,7 +5844,7 @@
       <c r="I154" s="10"/>
       <c r="J154" s="5"/>
     </row>
-    <row r="155" ht="15.75" spans="1:10">
+    <row r="155" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -6513,7 +5856,7 @@
       <c r="I155" s="10"/>
       <c r="J155" s="5"/>
     </row>
-    <row r="156" ht="15.75" spans="1:10">
+    <row r="156" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="19"/>
       <c r="C156" s="19"/>
@@ -6525,7 +5868,7 @@
       <c r="I156" s="10"/>
       <c r="J156" s="5"/>
     </row>
-    <row r="157" ht="15.75" spans="1:10">
+    <row r="157" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -6537,7 +5880,7 @@
       <c r="I157" s="10"/>
       <c r="J157" s="5"/>
     </row>
-    <row r="158" ht="15.75" spans="1:10">
+    <row r="158" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -6549,7 +5892,7 @@
       <c r="I158" s="10"/>
       <c r="J158" s="5"/>
     </row>
-    <row r="159" ht="15.75" spans="1:10">
+    <row r="159" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
@@ -6561,7 +5904,7 @@
       <c r="I159" s="10"/>
       <c r="J159" s="5"/>
     </row>
-    <row r="160" ht="15.75" spans="1:10">
+    <row r="160" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -6573,7 +5916,7 @@
       <c r="I160" s="10"/>
       <c r="J160" s="5"/>
     </row>
-    <row r="161" ht="15.75" spans="1:10">
+    <row r="161" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -6585,7 +5928,7 @@
       <c r="I161" s="10"/>
       <c r="J161" s="5"/>
     </row>
-    <row r="162" ht="15.75" spans="1:10">
+    <row r="162" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -6597,7 +5940,7 @@
       <c r="I162" s="10"/>
       <c r="J162" s="5"/>
     </row>
-    <row r="163" ht="15.75" spans="1:10">
+    <row r="163" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -6609,7 +5952,7 @@
       <c r="I163" s="10"/>
       <c r="J163" s="5"/>
     </row>
-    <row r="164" ht="15.75" spans="1:10">
+    <row r="164" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -6621,7 +5964,7 @@
       <c r="I164" s="10"/>
       <c r="J164" s="5"/>
     </row>
-    <row r="165" ht="15.75" spans="1:10">
+    <row r="165" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -6633,7 +5976,7 @@
       <c r="I165" s="10"/>
       <c r="J165" s="5"/>
     </row>
-    <row r="166" ht="15.75" spans="1:10">
+    <row r="166" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -6645,7 +5988,7 @@
       <c r="I166" s="10"/>
       <c r="J166" s="5"/>
     </row>
-    <row r="167" ht="15.75" spans="1:10">
+    <row r="167" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -6657,7 +6000,7 @@
       <c r="I167" s="10"/>
       <c r="J167" s="5"/>
     </row>
-    <row r="168" ht="15.75" spans="1:10">
+    <row r="168" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -6669,7 +6012,7 @@
       <c r="I168" s="10"/>
       <c r="J168" s="5"/>
     </row>
-    <row r="169" ht="15.75" spans="1:10">
+    <row r="169" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -6681,7 +6024,7 @@
       <c r="I169" s="10"/>
       <c r="J169" s="5"/>
     </row>
-    <row r="170" ht="15.75" spans="1:10">
+    <row r="170" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -6689,7 +6032,7 @@
       <c r="I170" s="10"/>
       <c r="J170" s="5"/>
     </row>
-    <row r="171" ht="15.75" spans="1:10">
+    <row r="171" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -6701,7 +6044,7 @@
       <c r="I171" s="10"/>
       <c r="J171" s="5"/>
     </row>
-    <row r="172" ht="15.75" spans="1:10">
+    <row r="172" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -6713,7 +6056,7 @@
       <c r="I172" s="10"/>
       <c r="J172" s="5"/>
     </row>
-    <row r="173" ht="15.75" spans="1:10">
+    <row r="173" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -6725,7 +6068,7 @@
       <c r="I173" s="10"/>
       <c r="J173" s="5"/>
     </row>
-    <row r="174" ht="15.75" spans="1:10">
+    <row r="174" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
@@ -6737,7 +6080,7 @@
       <c r="I174" s="10"/>
       <c r="J174" s="5"/>
     </row>
-    <row r="175" ht="15.75" spans="1:10">
+    <row r="175" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -6749,7 +6092,7 @@
       <c r="I175" s="10"/>
       <c r="J175" s="5"/>
     </row>
-    <row r="176" ht="15.75" spans="1:10">
+    <row r="176" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -6761,7 +6104,7 @@
       <c r="I176" s="10"/>
       <c r="J176" s="5"/>
     </row>
-    <row r="177" ht="15.75" spans="1:10">
+    <row r="177" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -6773,7 +6116,7 @@
       <c r="I177" s="10"/>
       <c r="J177" s="5"/>
     </row>
-    <row r="178" ht="15.75" spans="1:10">
+    <row r="178" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -6785,7 +6128,7 @@
       <c r="I178" s="10"/>
       <c r="J178" s="5"/>
     </row>
-    <row r="179" ht="15.75" spans="1:10">
+    <row r="179" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -6797,7 +6140,7 @@
       <c r="I179" s="10"/>
       <c r="J179" s="5"/>
     </row>
-    <row r="180" ht="15.75" spans="1:10">
+    <row r="180" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -6809,7 +6152,7 @@
       <c r="I180" s="10"/>
       <c r="J180" s="5"/>
     </row>
-    <row r="181" ht="15.75" spans="1:10">
+    <row r="181" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -6821,7 +6164,7 @@
       <c r="I181" s="10"/>
       <c r="J181" s="5"/>
     </row>
-    <row r="182" ht="15.75" spans="1:10">
+    <row r="182" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -6833,7 +6176,7 @@
       <c r="I182" s="10"/>
       <c r="J182" s="5"/>
     </row>
-    <row r="183" ht="15.75" spans="1:10">
+    <row r="183" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -6841,7 +6184,7 @@
       <c r="I183" s="10"/>
       <c r="J183" s="5"/>
     </row>
-    <row r="184" ht="15.75" spans="1:10">
+    <row r="184" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -6853,7 +6196,7 @@
       <c r="I184" s="10"/>
       <c r="J184" s="5"/>
     </row>
-    <row r="185" ht="15.75" spans="1:10">
+    <row r="185" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -6865,7 +6208,7 @@
       <c r="I185" s="10"/>
       <c r="J185" s="5"/>
     </row>
-    <row r="186" ht="15.75" spans="1:10">
+    <row r="186" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -6877,7 +6220,7 @@
       <c r="I186" s="10"/>
       <c r="J186" s="5"/>
     </row>
-    <row r="187" ht="15.75" spans="1:10">
+    <row r="187" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
@@ -6889,7 +6232,7 @@
       <c r="I187" s="10"/>
       <c r="J187" s="5"/>
     </row>
-    <row r="188" ht="15.75" spans="1:10">
+    <row r="188" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -6901,7 +6244,7 @@
       <c r="I188" s="10"/>
       <c r="J188" s="5"/>
     </row>
-    <row r="189" ht="15.75" spans="1:10">
+    <row r="189" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -6913,7 +6256,7 @@
       <c r="I189" s="10"/>
       <c r="J189" s="5"/>
     </row>
-    <row r="190" ht="15.75" spans="1:10">
+    <row r="190" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -6925,7 +6268,7 @@
       <c r="I190" s="10"/>
       <c r="J190" s="5"/>
     </row>
-    <row r="191" ht="15.75" spans="1:10">
+    <row r="191" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -6937,7 +6280,7 @@
       <c r="I191" s="10"/>
       <c r="J191" s="5"/>
     </row>
-    <row r="192" ht="15.75" spans="1:10">
+    <row r="192" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -6949,7 +6292,7 @@
       <c r="I192" s="10"/>
       <c r="J192" s="5"/>
     </row>
-    <row r="193" ht="15.75" spans="1:10">
+    <row r="193" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -6961,7 +6304,7 @@
       <c r="I193" s="10"/>
       <c r="J193" s="5"/>
     </row>
-    <row r="194" ht="15.75" spans="1:10">
+    <row r="194" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -6973,7 +6316,7 @@
       <c r="I194" s="10"/>
       <c r="J194" s="5"/>
     </row>
-    <row r="195" ht="15.75" spans="1:10">
+    <row r="195" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -6985,7 +6328,7 @@
       <c r="I195" s="10"/>
       <c r="J195" s="5"/>
     </row>
-    <row r="196" ht="15.75" spans="1:10">
+    <row r="196" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -6997,7 +6340,7 @@
       <c r="I196" s="10"/>
       <c r="J196" s="5"/>
     </row>
-    <row r="197" ht="15.75" spans="1:10">
+    <row r="197" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
@@ -7009,7 +6352,7 @@
       <c r="I197" s="10"/>
       <c r="J197" s="5"/>
     </row>
-    <row r="198" ht="15.75" spans="1:10">
+    <row r="198" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -7021,7 +6364,7 @@
       <c r="I198" s="10"/>
       <c r="J198" s="5"/>
     </row>
-    <row r="199" ht="15.75" spans="1:10">
+    <row r="199" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -7033,7 +6376,7 @@
       <c r="I199" s="10"/>
       <c r="J199" s="5"/>
     </row>
-    <row r="200" ht="15.75" spans="1:10">
+    <row r="200" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -7045,7 +6388,7 @@
       <c r="I200" s="10"/>
       <c r="J200" s="5"/>
     </row>
-    <row r="201" ht="15.75" spans="1:10">
+    <row r="201" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -7057,7 +6400,7 @@
       <c r="I201" s="10"/>
       <c r="J201" s="5"/>
     </row>
-    <row r="202" ht="15.75" spans="1:10">
+    <row r="202" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -7069,7 +6412,7 @@
       <c r="I202" s="10"/>
       <c r="J202" s="5"/>
     </row>
-    <row r="203" ht="15.75" spans="1:10">
+    <row r="203" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A203" s="10"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -7081,7 +6424,7 @@
       <c r="I203" s="10"/>
       <c r="J203" s="5"/>
     </row>
-    <row r="204" ht="15.75" spans="1:10">
+    <row r="204" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -7093,7 +6436,7 @@
       <c r="I204" s="10"/>
       <c r="J204" s="5"/>
     </row>
-    <row r="205" ht="15.75" spans="1:10">
+    <row r="205" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -7105,7 +6448,7 @@
       <c r="I205" s="10"/>
       <c r="J205" s="5"/>
     </row>
-    <row r="206" ht="15.75" spans="1:10">
+    <row r="206" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A206" s="10"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -7117,7 +6460,7 @@
       <c r="I206" s="10"/>
       <c r="J206" s="5"/>
     </row>
-    <row r="207" ht="15.75" spans="1:10">
+    <row r="207" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A207" s="10"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -7129,7 +6472,7 @@
       <c r="I207" s="10"/>
       <c r="J207" s="5"/>
     </row>
-    <row r="208" ht="15.75" spans="1:10">
+    <row r="208" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A208" s="10"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -7141,7 +6484,7 @@
       <c r="I208" s="10"/>
       <c r="J208" s="5"/>
     </row>
-    <row r="209" ht="15.75" spans="1:10">
+    <row r="209" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A209" s="10"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -7153,7 +6496,7 @@
       <c r="I209" s="10"/>
       <c r="J209" s="5"/>
     </row>
-    <row r="210" ht="15.75" spans="1:10">
+    <row r="210" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A210" s="10"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -7165,7 +6508,7 @@
       <c r="I210" s="10"/>
       <c r="J210" s="5"/>
     </row>
-    <row r="211" ht="15.75" spans="1:10">
+    <row r="211" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A211" s="10"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -7173,7 +6516,7 @@
       <c r="I211" s="10"/>
       <c r="J211" s="5"/>
     </row>
-    <row r="212" ht="15.75" spans="1:10">
+    <row r="212" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A212" s="10"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -7185,7 +6528,7 @@
       <c r="I212" s="10"/>
       <c r="J212" s="5"/>
     </row>
-    <row r="213" ht="15.75" spans="1:10">
+    <row r="213" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -7197,7 +6540,7 @@
       <c r="I213" s="10"/>
       <c r="J213" s="5"/>
     </row>
-    <row r="214" ht="15.75" spans="1:10">
+    <row r="214" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -7209,7 +6552,7 @@
       <c r="I214" s="10"/>
       <c r="J214" s="5"/>
     </row>
-    <row r="215" ht="15.75" spans="1:10">
+    <row r="215" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A215" s="10"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -7217,7 +6560,7 @@
       <c r="I215" s="10"/>
       <c r="J215" s="5"/>
     </row>
-    <row r="216" ht="15.75" spans="1:10">
+    <row r="216" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A216" s="10"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -7229,7 +6572,7 @@
       <c r="I216" s="10"/>
       <c r="J216" s="5"/>
     </row>
-    <row r="217" ht="15.75" spans="1:10">
+    <row r="217" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A217" s="10"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -7241,7 +6584,7 @@
       <c r="I217" s="10"/>
       <c r="J217" s="5"/>
     </row>
-    <row r="218" ht="15.75" spans="1:10">
+    <row r="218" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -7253,7 +6596,7 @@
       <c r="I218" s="10"/>
       <c r="J218" s="5"/>
     </row>
-    <row r="219" ht="15.75" spans="1:10">
+    <row r="219" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A219" s="10"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -7265,7 +6608,7 @@
       <c r="I219" s="10"/>
       <c r="J219" s="5"/>
     </row>
-    <row r="220" ht="15.75" spans="1:10">
+    <row r="220" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A220" s="10"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -7277,7 +6620,7 @@
       <c r="I220" s="10"/>
       <c r="J220" s="5"/>
     </row>
-    <row r="221" ht="15.75" spans="1:10">
+    <row r="221" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A221" s="10"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -7289,7 +6632,7 @@
       <c r="I221" s="10"/>
       <c r="J221" s="5"/>
     </row>
-    <row r="222" ht="15.75" spans="1:10">
+    <row r="222" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A222" s="10"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -7301,7 +6644,7 @@
       <c r="I222" s="10"/>
       <c r="J222" s="5"/>
     </row>
-    <row r="223" ht="15.75" spans="1:10">
+    <row r="223" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A223" s="10"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -7313,7 +6656,7 @@
       <c r="I223" s="10"/>
       <c r="J223" s="5"/>
     </row>
-    <row r="224" ht="15.75" spans="1:10">
+    <row r="224" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A224" s="10"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
@@ -7325,7 +6668,7 @@
       <c r="I224" s="10"/>
       <c r="J224" s="5"/>
     </row>
-    <row r="225" ht="15.75" spans="1:10">
+    <row r="225" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A225" s="10"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
@@ -7337,7 +6680,7 @@
       <c r="I225" s="10"/>
       <c r="J225" s="5"/>
     </row>
-    <row r="226" ht="15.75" spans="1:10">
+    <row r="226" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A226" s="10"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
@@ -7349,7 +6692,7 @@
       <c r="I226" s="10"/>
       <c r="J226" s="5"/>
     </row>
-    <row r="227" ht="15.75" spans="1:10">
+    <row r="227" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A227" s="10"/>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
@@ -7361,7 +6704,7 @@
       <c r="I227" s="10"/>
       <c r="J227" s="5"/>
     </row>
-    <row r="228" ht="15.75" spans="1:10">
+    <row r="228" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A228" s="10"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
@@ -7370,7 +6713,7 @@
       <c r="I228" s="10"/>
       <c r="J228" s="5"/>
     </row>
-    <row r="229" ht="15.75" spans="1:10">
+    <row r="229" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A229" s="10"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
@@ -7382,7 +6725,7 @@
       <c r="I229" s="10"/>
       <c r="J229" s="5"/>
     </row>
-    <row r="230" ht="15.75" spans="1:10">
+    <row r="230" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
@@ -7394,7 +6737,7 @@
       <c r="I230" s="10"/>
       <c r="J230" s="5"/>
     </row>
-    <row r="231" ht="15.75" spans="1:10">
+    <row r="231" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A231" s="10"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
@@ -7406,7 +6749,7 @@
       <c r="I231" s="10"/>
       <c r="J231" s="5"/>
     </row>
-    <row r="232" ht="15.75" spans="1:10">
+    <row r="232" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A232" s="10"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
@@ -7418,7 +6761,7 @@
       <c r="I232" s="10"/>
       <c r="J232" s="5"/>
     </row>
-    <row r="233" ht="15.75" spans="1:10">
+    <row r="233" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A233" s="10"/>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
@@ -7430,7 +6773,7 @@
       <c r="I233" s="10"/>
       <c r="J233" s="5"/>
     </row>
-    <row r="234" ht="15.75" spans="1:10">
+    <row r="234" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A234" s="10"/>
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
@@ -7442,7 +6785,7 @@
       <c r="I234" s="10"/>
       <c r="J234" s="5"/>
     </row>
-    <row r="235" ht="15.75" spans="1:10">
+    <row r="235" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A235" s="10"/>
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
@@ -7454,7 +6797,7 @@
       <c r="I235" s="10"/>
       <c r="J235" s="5"/>
     </row>
-    <row r="236" ht="15.75" spans="1:10">
+    <row r="236" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A236" s="10"/>
       <c r="B236" s="29"/>
       <c r="C236" s="29"/>
@@ -7466,7 +6809,7 @@
       <c r="I236" s="10"/>
       <c r="J236" s="5"/>
     </row>
-    <row r="237" ht="15.75" spans="1:10">
+    <row r="237" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A237" s="10"/>
       <c r="B237" s="11"/>
       <c r="C237" s="11"/>
@@ -7478,7 +6821,7 @@
       <c r="I237" s="10"/>
       <c r="J237" s="5"/>
     </row>
-    <row r="238" ht="15.75" spans="1:10">
+    <row r="238" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A238" s="10"/>
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
@@ -7490,7 +6833,7 @@
       <c r="I238" s="10"/>
       <c r="J238" s="5"/>
     </row>
-    <row r="239" ht="15.75" spans="1:10">
+    <row r="239" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A239" s="10"/>
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
@@ -7502,7 +6845,7 @@
       <c r="I239" s="10"/>
       <c r="J239" s="5"/>
     </row>
-    <row r="240" ht="15.75" spans="1:10">
+    <row r="240" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A240" s="10"/>
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
@@ -7514,7 +6857,7 @@
       <c r="I240" s="10"/>
       <c r="J240" s="5"/>
     </row>
-    <row r="241" ht="15.75" spans="1:10">
+    <row r="241" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A241" s="10"/>
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
@@ -7526,7 +6869,7 @@
       <c r="I241" s="10"/>
       <c r="J241" s="5"/>
     </row>
-    <row r="242" ht="15.75" spans="1:10">
+    <row r="242" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A242" s="10"/>
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
@@ -7538,7 +6881,7 @@
       <c r="I242" s="10"/>
       <c r="J242" s="5"/>
     </row>
-    <row r="243" ht="15.75" spans="1:10">
+    <row r="243" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A243" s="10"/>
       <c r="B243" s="11"/>
       <c r="C243" s="11"/>
@@ -7550,7 +6893,7 @@
       <c r="I243" s="10"/>
       <c r="J243" s="5"/>
     </row>
-    <row r="244" ht="15.75" spans="1:10">
+    <row r="244" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A244" s="10"/>
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
@@ -7562,7 +6905,7 @@
       <c r="I244" s="10"/>
       <c r="J244" s="5"/>
     </row>
-    <row r="245" ht="15.75" spans="1:10">
+    <row r="245" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A245" s="10"/>
       <c r="B245" s="29"/>
       <c r="C245" s="29"/>
@@ -7574,7 +6917,7 @@
       <c r="I245" s="10"/>
       <c r="J245" s="5"/>
     </row>
-    <row r="246" ht="15.75" spans="1:10">
+    <row r="246" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A246" s="10"/>
       <c r="B246" s="13"/>
       <c r="C246" s="13"/>
@@ -7586,7 +6929,7 @@
       <c r="I246" s="10"/>
       <c r="J246" s="5"/>
     </row>
-    <row r="247" ht="15.75" spans="1:10">
+    <row r="247" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A247" s="10"/>
       <c r="B247" s="11"/>
       <c r="C247" s="11"/>
@@ -7595,7 +6938,7 @@
       <c r="I247" s="10"/>
       <c r="J247" s="5"/>
     </row>
-    <row r="248" ht="15.75" spans="1:10">
+    <row r="248" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A248" s="10"/>
       <c r="B248" s="11"/>
       <c r="C248" s="11"/>
@@ -7607,7 +6950,7 @@
       <c r="I248" s="10"/>
       <c r="J248" s="5"/>
     </row>
-    <row r="249" ht="15.75" spans="1:10">
+    <row r="249" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A249" s="10"/>
       <c r="B249" s="11"/>
       <c r="C249" s="11"/>
@@ -7619,7 +6962,7 @@
       <c r="I249" s="10"/>
       <c r="J249" s="5"/>
     </row>
-    <row r="250" ht="15.75" spans="1:10">
+    <row r="250" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A250" s="10"/>
       <c r="B250" s="11"/>
       <c r="C250" s="11"/>
@@ -7631,7 +6974,7 @@
       <c r="I250" s="10"/>
       <c r="J250" s="5"/>
     </row>
-    <row r="251" ht="15.75" spans="1:10">
+    <row r="251" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A251" s="10"/>
       <c r="B251" s="11"/>
       <c r="C251" s="11"/>
@@ -7643,7 +6986,7 @@
       <c r="I251" s="10"/>
       <c r="J251" s="5"/>
     </row>
-    <row r="252" ht="15.75" spans="1:10">
+    <row r="252" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A252" s="10"/>
       <c r="B252" s="11"/>
       <c r="C252" s="11"/>
@@ -7655,7 +6998,7 @@
       <c r="I252" s="10"/>
       <c r="J252" s="5"/>
     </row>
-    <row r="253" ht="15.75" spans="1:10">
+    <row r="253" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A253" s="10"/>
       <c r="B253" s="11"/>
       <c r="C253" s="11"/>
@@ -7667,7 +7010,7 @@
       <c r="I253" s="10"/>
       <c r="J253" s="5"/>
     </row>
-    <row r="254" ht="15.75" spans="1:10">
+    <row r="254" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A254" s="10"/>
       <c r="B254" s="11"/>
       <c r="C254" s="11"/>
@@ -7679,7 +7022,7 @@
       <c r="I254" s="10"/>
       <c r="J254" s="5"/>
     </row>
-    <row r="255" ht="15.75" spans="1:10">
+    <row r="255" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A255" s="10"/>
       <c r="B255" s="11"/>
       <c r="C255" s="11"/>
@@ -7691,7 +7034,7 @@
       <c r="I255" s="10"/>
       <c r="J255" s="5"/>
     </row>
-    <row r="256" ht="15.75" spans="1:10">
+    <row r="256" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A256" s="10"/>
       <c r="B256" s="13"/>
       <c r="C256" s="13"/>
@@ -7703,7 +7046,7 @@
       <c r="I256" s="10"/>
       <c r="J256" s="5"/>
     </row>
-    <row r="257" ht="15.75" spans="1:10">
+    <row r="257" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A257" s="10"/>
       <c r="B257" s="11"/>
       <c r="C257" s="11"/>
@@ -7715,7 +7058,7 @@
       <c r="I257" s="10"/>
       <c r="J257" s="5"/>
     </row>
-    <row r="258" ht="15.75" spans="1:10">
+    <row r="258" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A258" s="10"/>
       <c r="B258" s="11"/>
       <c r="C258" s="11"/>
@@ -7727,7 +7070,7 @@
       <c r="I258" s="10"/>
       <c r="J258" s="5"/>
     </row>
-    <row r="259" ht="15.75" spans="1:10">
+    <row r="259" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A259" s="10"/>
       <c r="B259" s="11"/>
       <c r="C259" s="11"/>
@@ -7739,7 +7082,7 @@
       <c r="I259" s="10"/>
       <c r="J259" s="5"/>
     </row>
-    <row r="260" ht="15.75" spans="1:10">
+    <row r="260" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A260" s="10"/>
       <c r="B260" s="11"/>
       <c r="C260" s="11"/>
@@ -7751,7 +7094,7 @@
       <c r="I260" s="10"/>
       <c r="J260" s="5"/>
     </row>
-    <row r="261" ht="15.75" spans="1:10">
+    <row r="261" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A261" s="10"/>
       <c r="B261" s="11"/>
       <c r="C261" s="11"/>
@@ -7763,7 +7106,7 @@
       <c r="I261" s="10"/>
       <c r="J261" s="5"/>
     </row>
-    <row r="262" ht="15.75" spans="1:10">
+    <row r="262" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A262" s="10"/>
       <c r="B262" s="11"/>
       <c r="C262" s="11"/>
@@ -7775,7 +7118,7 @@
       <c r="I262" s="10"/>
       <c r="J262" s="5"/>
     </row>
-    <row r="263" ht="15.75" spans="1:10">
+    <row r="263" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A263" s="10"/>
       <c r="B263" s="11"/>
       <c r="C263" s="11"/>
@@ -7787,7 +7130,7 @@
       <c r="I263" s="10"/>
       <c r="J263" s="5"/>
     </row>
-    <row r="264" ht="15.75" spans="1:10">
+    <row r="264" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A264" s="10"/>
       <c r="B264" s="11"/>
       <c r="C264" s="11"/>
@@ -7799,7 +7142,7 @@
       <c r="I264" s="10"/>
       <c r="J264" s="5"/>
     </row>
-    <row r="265" ht="15.75" spans="1:10">
+    <row r="265" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A265" s="10"/>
       <c r="B265" s="11"/>
       <c r="C265" s="11"/>
@@ -7811,7 +7154,7 @@
       <c r="I265" s="10"/>
       <c r="J265" s="5"/>
     </row>
-    <row r="266" ht="15.75" spans="1:10">
+    <row r="266" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A266" s="10"/>
       <c r="B266" s="11"/>
       <c r="C266" s="11"/>
@@ -7823,7 +7166,7 @@
       <c r="I266" s="10"/>
       <c r="J266" s="5"/>
     </row>
-    <row r="267" ht="15.75" spans="1:10">
+    <row r="267" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A267" s="10"/>
       <c r="B267" s="11"/>
       <c r="C267" s="11"/>
@@ -7835,7 +7178,7 @@
       <c r="I267" s="10"/>
       <c r="J267" s="5"/>
     </row>
-    <row r="268" ht="15.75" spans="1:10">
+    <row r="268" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A268" s="10"/>
       <c r="B268" s="11"/>
       <c r="C268" s="11"/>
@@ -7847,7 +7190,7 @@
       <c r="I268" s="10"/>
       <c r="J268" s="5"/>
     </row>
-    <row r="269" ht="15.75" spans="1:10">
+    <row r="269" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A269" s="10"/>
       <c r="B269" s="11"/>
       <c r="C269" s="11"/>
@@ -7859,7 +7202,7 @@
       <c r="I269" s="10"/>
       <c r="J269" s="5"/>
     </row>
-    <row r="270" ht="15.75" spans="1:10">
+    <row r="270" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A270" s="10"/>
       <c r="B270" s="13"/>
       <c r="C270" s="13"/>
@@ -7871,7 +7214,7 @@
       <c r="I270" s="10"/>
       <c r="J270" s="5"/>
     </row>
-    <row r="271" ht="15.75" spans="1:10">
+    <row r="271" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A271" s="10"/>
       <c r="B271" s="11"/>
       <c r="C271" s="11"/>
@@ -7883,7 +7226,7 @@
       <c r="I271" s="10"/>
       <c r="J271" s="5"/>
     </row>
-    <row r="272" ht="15.75" spans="1:10">
+    <row r="272" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A272" s="10"/>
       <c r="B272" s="11"/>
       <c r="C272" s="11"/>
@@ -7895,7 +7238,7 @@
       <c r="I272" s="10"/>
       <c r="J272" s="5"/>
     </row>
-    <row r="273" ht="15.75" spans="1:10">
+    <row r="273" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A273" s="10"/>
       <c r="B273" s="11"/>
       <c r="C273" s="11"/>
@@ -7907,7 +7250,7 @@
       <c r="I273" s="10"/>
       <c r="J273" s="5"/>
     </row>
-    <row r="274" ht="15.75" spans="1:10">
+    <row r="274" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A274" s="10"/>
       <c r="B274" s="11"/>
       <c r="C274" s="11"/>
@@ -7919,7 +7262,7 @@
       <c r="I274" s="10"/>
       <c r="J274" s="5"/>
     </row>
-    <row r="275" ht="15.75" spans="1:10">
+    <row r="275" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A275" s="10"/>
       <c r="B275" s="11"/>
       <c r="C275" s="11"/>
@@ -7931,7 +7274,7 @@
       <c r="I275" s="10"/>
       <c r="J275" s="5"/>
     </row>
-    <row r="276" ht="15.75" spans="1:10">
+    <row r="276" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A276" s="10"/>
       <c r="B276" s="11"/>
       <c r="C276" s="11"/>
@@ -7943,7 +7286,7 @@
       <c r="I276" s="10"/>
       <c r="J276" s="5"/>
     </row>
-    <row r="277" ht="15.75" spans="1:10">
+    <row r="277" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A277" s="10"/>
       <c r="B277" s="11"/>
       <c r="C277" s="11"/>
@@ -7951,7 +7294,7 @@
       <c r="I277" s="10"/>
       <c r="J277" s="5"/>
     </row>
-    <row r="278" ht="15.75" spans="1:10">
+    <row r="278" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A278" s="10"/>
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
@@ -7963,7 +7306,7 @@
       <c r="I278" s="10"/>
       <c r="J278" s="5"/>
     </row>
-    <row r="279" ht="15.75" spans="1:10">
+    <row r="279" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A279" s="10"/>
       <c r="B279" s="11"/>
       <c r="C279" s="11"/>
@@ -7975,7 +7318,7 @@
       <c r="I279" s="10"/>
       <c r="J279" s="5"/>
     </row>
-    <row r="280" ht="15.75" spans="1:10">
+    <row r="280" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A280" s="10"/>
       <c r="B280" s="11"/>
       <c r="C280" s="11"/>
@@ -7986,7 +7329,7 @@
       <c r="I280" s="10"/>
       <c r="J280" s="5"/>
     </row>
-    <row r="281" ht="15.75" spans="1:10">
+    <row r="281" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A281" s="10"/>
       <c r="B281" s="11"/>
       <c r="C281" s="11"/>
@@ -7997,7 +7340,7 @@
       <c r="I281" s="10"/>
       <c r="J281" s="5"/>
     </row>
-    <row r="282" ht="15.75" spans="1:10">
+    <row r="282" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A282" s="10"/>
       <c r="B282" s="13"/>
       <c r="C282" s="13"/>
@@ -8009,7 +7352,7 @@
       <c r="I282" s="10"/>
       <c r="J282" s="5"/>
     </row>
-    <row r="283" ht="15.75" spans="1:10">
+    <row r="283" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A283" s="10"/>
       <c r="B283" s="11"/>
       <c r="C283" s="11"/>
@@ -8020,7 +7363,7 @@
       <c r="I283" s="10"/>
       <c r="J283" s="5"/>
     </row>
-    <row r="284" ht="15.75" spans="1:10">
+    <row r="284" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A284" s="10"/>
       <c r="B284" s="13"/>
       <c r="C284" s="13"/>
@@ -8031,7 +7374,7 @@
       <c r="I284" s="10"/>
       <c r="J284" s="5"/>
     </row>
-    <row r="285" ht="15.75" spans="1:10">
+    <row r="285" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A285" s="10"/>
       <c r="B285" s="11"/>
       <c r="C285" s="11"/>
@@ -8042,7 +7385,7 @@
       <c r="I285" s="10"/>
       <c r="J285" s="5"/>
     </row>
-    <row r="286" ht="15.75" spans="1:10">
+    <row r="286" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A286" s="10"/>
       <c r="B286" s="11"/>
       <c r="C286" s="11"/>
@@ -8054,7 +7397,7 @@
       <c r="I286" s="10"/>
       <c r="J286" s="5"/>
     </row>
-    <row r="287" ht="15.75" spans="1:10">
+    <row r="287" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A287" s="10"/>
       <c r="B287" s="11"/>
       <c r="C287" s="11"/>
@@ -8064,7 +7407,7 @@
       <c r="H287" s="11"/>
       <c r="J287" s="5"/>
     </row>
-    <row r="288" ht="15.75" spans="1:10">
+    <row r="288" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A288" s="10"/>
       <c r="B288" s="11"/>
       <c r="C288" s="11"/>
@@ -8076,7 +7419,7 @@
       <c r="I288" s="10"/>
       <c r="J288" s="5"/>
     </row>
-    <row r="289" ht="15.75" spans="1:10">
+    <row r="289" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A289" s="10"/>
       <c r="B289" s="11"/>
       <c r="C289" s="11"/>
@@ -8088,7 +7431,7 @@
       <c r="I289" s="10"/>
       <c r="J289" s="5"/>
     </row>
-    <row r="290" ht="15.75" spans="1:10">
+    <row r="290" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A290" s="10"/>
       <c r="B290" s="11"/>
       <c r="C290" s="11"/>
@@ -8100,7 +7443,7 @@
       <c r="I290" s="10"/>
       <c r="J290" s="5"/>
     </row>
-    <row r="291" ht="15.75" spans="1:10">
+    <row r="291" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A291" s="10"/>
       <c r="B291" s="11"/>
       <c r="C291" s="11"/>
@@ -8112,7 +7455,7 @@
       <c r="I291" s="10"/>
       <c r="J291" s="5"/>
     </row>
-    <row r="292" ht="15.75" spans="1:10">
+    <row r="292" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A292" s="10"/>
       <c r="B292" s="11"/>
       <c r="C292" s="11"/>
@@ -8123,7 +7466,7 @@
       <c r="I292" s="10"/>
       <c r="J292" s="5"/>
     </row>
-    <row r="293" ht="15.75" spans="1:10">
+    <row r="293" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A293" s="10"/>
       <c r="B293" s="11"/>
       <c r="C293" s="11"/>
@@ -8135,7 +7478,7 @@
       <c r="I293" s="10"/>
       <c r="J293" s="5"/>
     </row>
-    <row r="294" ht="15.75" spans="1:10">
+    <row r="294" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A294" s="10"/>
       <c r="B294" s="11"/>
       <c r="C294" s="11"/>
@@ -8147,7 +7490,7 @@
       <c r="I294" s="10"/>
       <c r="J294" s="5"/>
     </row>
-    <row r="295" ht="15.75" spans="1:10">
+    <row r="295" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A295" s="10"/>
       <c r="B295" s="11"/>
       <c r="C295" s="11"/>
@@ -8157,7 +7500,7 @@
       <c r="I295" s="10"/>
       <c r="J295" s="5"/>
     </row>
-    <row r="296" ht="15.75" spans="1:10">
+    <row r="296" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A296" s="10"/>
       <c r="B296" s="11"/>
       <c r="C296" s="11"/>
@@ -8169,7 +7512,7 @@
       <c r="I296" s="10"/>
       <c r="J296" s="5"/>
     </row>
-    <row r="297" ht="15.75" spans="1:10">
+    <row r="297" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A297" s="10"/>
       <c r="B297" s="11"/>
       <c r="C297" s="11"/>
@@ -8181,7 +7524,7 @@
       <c r="I297" s="10"/>
       <c r="J297" s="5"/>
     </row>
-    <row r="298" ht="15.75" spans="1:10">
+    <row r="298" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A298" s="10"/>
       <c r="B298" s="11"/>
       <c r="C298" s="11"/>
@@ -8193,7 +7536,7 @@
       <c r="I298" s="10"/>
       <c r="J298" s="5"/>
     </row>
-    <row r="299" ht="15.75" spans="1:10">
+    <row r="299" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A299" s="10"/>
       <c r="B299" s="11"/>
       <c r="C299" s="11"/>
@@ -8205,7 +7548,7 @@
       <c r="I299" s="10"/>
       <c r="J299" s="5"/>
     </row>
-    <row r="300" ht="15.75" spans="1:10">
+    <row r="300" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A300" s="10"/>
       <c r="B300" s="11"/>
       <c r="C300" s="11"/>
@@ -8217,7 +7560,7 @@
       <c r="I300" s="10"/>
       <c r="J300" s="5"/>
     </row>
-    <row r="301" ht="15.75" spans="1:10">
+    <row r="301" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A301" s="10"/>
       <c r="B301" s="11"/>
       <c r="C301" s="11"/>
@@ -8229,7 +7572,7 @@
       <c r="I301" s="10"/>
       <c r="J301" s="5"/>
     </row>
-    <row r="302" ht="15.75" spans="1:10">
+    <row r="302" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A302" s="10"/>
       <c r="B302" s="11"/>
       <c r="C302" s="11"/>
@@ -8241,7 +7584,7 @@
       <c r="I302" s="10"/>
       <c r="J302" s="5"/>
     </row>
-    <row r="303" ht="15.75" spans="1:10">
+    <row r="303" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A303" s="10"/>
       <c r="B303" s="19"/>
       <c r="C303" s="19"/>
@@ -8253,7 +7596,7 @@
       <c r="I303" s="10"/>
       <c r="J303" s="5"/>
     </row>
-    <row r="304" ht="15.75" spans="1:10">
+    <row r="304" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A304" s="10"/>
       <c r="B304" s="11"/>
       <c r="C304" s="11"/>
@@ -8265,7 +7608,7 @@
       <c r="I304" s="10"/>
       <c r="J304" s="5"/>
     </row>
-    <row r="305" ht="15.75" spans="1:10">
+    <row r="305" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A305" s="10"/>
       <c r="B305" s="11"/>
       <c r="C305" s="11"/>
@@ -8277,7 +7620,7 @@
       <c r="I305" s="10"/>
       <c r="J305" s="5"/>
     </row>
-    <row r="306" ht="15.75" spans="1:10">
+    <row r="306" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A306" s="10"/>
       <c r="B306" s="11"/>
       <c r="C306" s="11"/>
@@ -8289,7 +7632,7 @@
       <c r="I306" s="10"/>
       <c r="J306" s="5"/>
     </row>
-    <row r="307" ht="15.75" spans="1:10">
+    <row r="307" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A307" s="10"/>
       <c r="B307" s="11"/>
       <c r="C307" s="11"/>
@@ -8301,7 +7644,7 @@
       <c r="I307" s="10"/>
       <c r="J307" s="5"/>
     </row>
-    <row r="308" ht="15.75" spans="1:10">
+    <row r="308" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A308" s="10"/>
       <c r="B308" s="11"/>
       <c r="C308" s="11"/>
@@ -8313,7 +7656,7 @@
       <c r="I308" s="10"/>
       <c r="J308" s="5"/>
     </row>
-    <row r="309" ht="15.75" spans="1:10">
+    <row r="309" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A309" s="10"/>
       <c r="B309" s="11"/>
       <c r="C309" s="11"/>
@@ -8325,7 +7668,7 @@
       <c r="I309" s="10"/>
       <c r="J309" s="5"/>
     </row>
-    <row r="310" ht="15.75" spans="1:10">
+    <row r="310" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A310" s="10"/>
       <c r="B310" s="11"/>
       <c r="C310" s="11"/>
@@ -8337,7 +7680,7 @@
       <c r="I310" s="10"/>
       <c r="J310" s="5"/>
     </row>
-    <row r="311" ht="15.75" spans="1:10">
+    <row r="311" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A311" s="10"/>
       <c r="B311" s="13"/>
       <c r="C311" s="13"/>
@@ -8349,7 +7692,7 @@
       <c r="I311" s="10"/>
       <c r="J311" s="5"/>
     </row>
-    <row r="312" ht="15.75" spans="1:10">
+    <row r="312" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A312" s="10"/>
       <c r="B312" s="11"/>
       <c r="C312" s="11"/>
@@ -8361,7 +7704,7 @@
       <c r="I312" s="10"/>
       <c r="J312" s="5"/>
     </row>
-    <row r="313" ht="15.75" spans="1:10">
+    <row r="313" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A313" s="10"/>
       <c r="B313" s="11"/>
       <c r="C313" s="11"/>
@@ -8373,7 +7716,7 @@
       <c r="I313" s="10"/>
       <c r="J313" s="5"/>
     </row>
-    <row r="314" ht="15.75" spans="1:10">
+    <row r="314" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A314" s="10"/>
       <c r="B314" s="13"/>
       <c r="C314" s="13"/>
@@ -8385,7 +7728,7 @@
       <c r="I314" s="10"/>
       <c r="J314" s="5"/>
     </row>
-    <row r="315" ht="15.75" spans="1:10">
+    <row r="315" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A315" s="10"/>
       <c r="B315" s="11"/>
       <c r="C315" s="11"/>
@@ -8397,7 +7740,7 @@
       <c r="I315" s="10"/>
       <c r="J315" s="5"/>
     </row>
-    <row r="316" ht="15.75" spans="1:10">
+    <row r="316" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A316" s="10"/>
       <c r="B316" s="11"/>
       <c r="C316" s="11"/>
@@ -8409,7 +7752,7 @@
       <c r="I316" s="10"/>
       <c r="J316" s="5"/>
     </row>
-    <row r="317" ht="15.75" spans="1:10">
+    <row r="317" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A317" s="10"/>
       <c r="B317" s="12"/>
       <c r="C317" s="12"/>
@@ -8421,7 +7764,7 @@
       <c r="I317" s="10"/>
       <c r="J317" s="5"/>
     </row>
-    <row r="318" ht="15.75" spans="1:10">
+    <row r="318" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A318" s="10"/>
       <c r="B318" s="11"/>
       <c r="C318" s="11"/>
@@ -8433,7 +7776,7 @@
       <c r="I318" s="10"/>
       <c r="J318" s="5"/>
     </row>
-    <row r="319" ht="15.75" spans="1:10">
+    <row r="319" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A319" s="10"/>
       <c r="B319" s="11"/>
       <c r="C319" s="11"/>
@@ -8445,7 +7788,7 @@
       <c r="I319" s="10"/>
       <c r="J319" s="5"/>
     </row>
-    <row r="320" ht="15.75" spans="1:10">
+    <row r="320" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A320" s="10"/>
       <c r="B320" s="11"/>
       <c r="C320" s="11"/>
@@ -8457,7 +7800,7 @@
       <c r="I320" s="10"/>
       <c r="J320" s="5"/>
     </row>
-    <row r="321" ht="15.75" spans="1:10">
+    <row r="321" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A321" s="10"/>
       <c r="B321" s="11"/>
       <c r="C321" s="11"/>
@@ -8469,7 +7812,7 @@
       <c r="I321" s="10"/>
       <c r="J321" s="5"/>
     </row>
-    <row r="322" ht="15.75" spans="1:10">
+    <row r="322" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A322" s="10"/>
       <c r="B322" s="11"/>
       <c r="C322" s="11"/>
@@ -8481,7 +7824,7 @@
       <c r="I322" s="10"/>
       <c r="J322" s="5"/>
     </row>
-    <row r="323" ht="15.75" spans="1:10">
+    <row r="323" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A323" s="10"/>
       <c r="B323" s="11"/>
       <c r="C323" s="11"/>
@@ -8493,7 +7836,7 @@
       <c r="I323" s="10"/>
       <c r="J323" s="5"/>
     </row>
-    <row r="324" ht="15.75" spans="1:10">
+    <row r="324" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A324" s="10"/>
       <c r="B324" s="11"/>
       <c r="C324" s="11"/>
@@ -8505,7 +7848,7 @@
       <c r="I324" s="10"/>
       <c r="J324" s="5"/>
     </row>
-    <row r="325" ht="15.75" spans="1:10">
+    <row r="325" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A325" s="10"/>
       <c r="B325" s="11"/>
       <c r="C325" s="11"/>
@@ -8517,7 +7860,7 @@
       <c r="I325" s="10"/>
       <c r="J325" s="5"/>
     </row>
-    <row r="326" ht="15.75" spans="1:10">
+    <row r="326" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A326" s="10"/>
       <c r="B326" s="11"/>
       <c r="C326" s="11"/>
@@ -8529,7 +7872,7 @@
       <c r="I326" s="10"/>
       <c r="J326" s="5"/>
     </row>
-    <row r="327" ht="15.75" spans="1:10">
+    <row r="327" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A327" s="10"/>
       <c r="B327" s="11"/>
       <c r="C327" s="11"/>
@@ -8541,7 +7884,7 @@
       <c r="I327" s="10"/>
       <c r="J327" s="5"/>
     </row>
-    <row r="328" ht="15.75" spans="1:10">
+    <row r="328" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A328" s="10"/>
       <c r="B328" s="11"/>
       <c r="C328" s="11"/>
@@ -8553,7 +7896,7 @@
       <c r="I328" s="10"/>
       <c r="J328" s="5"/>
     </row>
-    <row r="329" ht="15.75" spans="1:10">
+    <row r="329" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A329" s="10"/>
       <c r="B329" s="11"/>
       <c r="C329" s="11"/>
@@ -8565,7 +7908,7 @@
       <c r="I329" s="10"/>
       <c r="J329" s="5"/>
     </row>
-    <row r="330" ht="15.75" spans="1:10">
+    <row r="330" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A330" s="10"/>
       <c r="B330" s="11"/>
       <c r="C330" s="11"/>
@@ -8576,7 +7919,7 @@
       <c r="I330" s="10"/>
       <c r="J330" s="5"/>
     </row>
-    <row r="331" ht="15.75" spans="1:10">
+    <row r="331" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A331" s="10"/>
       <c r="B331" s="11"/>
       <c r="C331" s="11"/>
@@ -8588,7 +7931,7 @@
       <c r="I331" s="10"/>
       <c r="J331" s="5"/>
     </row>
-    <row r="332" ht="15.75" spans="1:10">
+    <row r="332" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A332" s="10"/>
       <c r="B332" s="11"/>
       <c r="C332" s="11"/>
@@ -8600,7 +7943,7 @@
       <c r="I332" s="10"/>
       <c r="J332" s="5"/>
     </row>
-    <row r="333" ht="15.75" spans="1:10">
+    <row r="333" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A333" s="10"/>
       <c r="B333" s="11"/>
       <c r="C333" s="11"/>
@@ -8612,7 +7955,7 @@
       <c r="I333" s="10"/>
       <c r="J333" s="5"/>
     </row>
-    <row r="334" ht="15.75" spans="1:10">
+    <row r="334" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A334" s="10"/>
       <c r="B334" s="11"/>
       <c r="C334" s="11"/>
@@ -8624,7 +7967,7 @@
       <c r="I334" s="10"/>
       <c r="J334" s="5"/>
     </row>
-    <row r="335" ht="15.75" spans="1:10">
+    <row r="335" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A335" s="10"/>
       <c r="B335" s="11"/>
       <c r="C335" s="11"/>
@@ -8636,7 +7979,7 @@
       <c r="I335" s="10"/>
       <c r="J335" s="5"/>
     </row>
-    <row r="336" ht="15.75" spans="1:10">
+    <row r="336" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A336" s="10"/>
       <c r="B336" s="11"/>
       <c r="C336" s="11"/>
@@ -8648,7 +7991,7 @@
       <c r="I336" s="10"/>
       <c r="J336" s="5"/>
     </row>
-    <row r="337" ht="15.75" spans="1:10">
+    <row r="337" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A337" s="10"/>
       <c r="B337" s="11"/>
       <c r="C337" s="11"/>
@@ -8660,7 +8003,7 @@
       <c r="I337" s="10"/>
       <c r="J337" s="5"/>
     </row>
-    <row r="338" ht="15.75" spans="1:10">
+    <row r="338" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A338" s="10"/>
       <c r="B338" s="11"/>
       <c r="C338" s="11"/>
@@ -8672,7 +8015,7 @@
       <c r="I338" s="10"/>
       <c r="J338" s="5"/>
     </row>
-    <row r="339" ht="15.75" spans="1:10">
+    <row r="339" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A339" s="10"/>
       <c r="B339" s="11"/>
       <c r="C339" s="11"/>
@@ -8684,7 +8027,7 @@
       <c r="I339" s="10"/>
       <c r="J339" s="5"/>
     </row>
-    <row r="340" ht="15.75" spans="1:10">
+    <row r="340" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A340" s="10"/>
       <c r="B340" s="13"/>
       <c r="C340" s="13"/>
@@ -8696,7 +8039,7 @@
       <c r="I340" s="10"/>
       <c r="J340" s="5"/>
     </row>
-    <row r="341" ht="15.75" spans="1:10">
+    <row r="341" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A341" s="10"/>
       <c r="B341" s="11"/>
       <c r="C341" s="11"/>
@@ -8708,7 +8051,7 @@
       <c r="I341" s="10"/>
       <c r="J341" s="5"/>
     </row>
-    <row r="342" ht="15.75" spans="1:10">
+    <row r="342" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A342" s="10"/>
       <c r="B342" s="11"/>
       <c r="C342" s="11"/>
@@ -8720,7 +8063,7 @@
       <c r="I342" s="10"/>
       <c r="J342" s="5"/>
     </row>
-    <row r="343" ht="15.75" spans="1:10">
+    <row r="343" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A343" s="10"/>
       <c r="B343" s="11"/>
       <c r="C343" s="11"/>
@@ -8732,7 +8075,7 @@
       <c r="I343" s="10"/>
       <c r="J343" s="5"/>
     </row>
-    <row r="344" ht="15.75" spans="1:10">
+    <row r="344" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A344" s="10"/>
       <c r="B344" s="11"/>
       <c r="C344" s="11"/>
@@ -8744,7 +8087,7 @@
       <c r="I344" s="10"/>
       <c r="J344" s="5"/>
     </row>
-    <row r="345" ht="15.75" spans="1:10">
+    <row r="345" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A345" s="10"/>
       <c r="B345" s="11"/>
       <c r="C345" s="11"/>
@@ -8756,7 +8099,7 @@
       <c r="I345" s="10"/>
       <c r="J345" s="5"/>
     </row>
-    <row r="346" ht="15.75" spans="1:10">
+    <row r="346" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A346" s="10"/>
       <c r="B346" s="11"/>
       <c r="C346" s="11"/>
@@ -8768,7 +8111,7 @@
       <c r="I346" s="10"/>
       <c r="J346" s="5"/>
     </row>
-    <row r="347" ht="15.75" spans="1:10">
+    <row r="347" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A347" s="10"/>
       <c r="B347" s="11"/>
       <c r="C347" s="11"/>
@@ -8780,7 +8123,7 @@
       <c r="I347" s="10"/>
       <c r="J347" s="5"/>
     </row>
-    <row r="348" ht="15.75" spans="1:10">
+    <row r="348" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A348" s="10"/>
       <c r="B348" s="11"/>
       <c r="C348" s="11"/>
@@ -8792,7 +8135,7 @@
       <c r="I348" s="10"/>
       <c r="J348" s="5"/>
     </row>
-    <row r="349" ht="15.75" spans="1:10">
+    <row r="349" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A349" s="10"/>
       <c r="B349" s="11"/>
       <c r="C349" s="11"/>
@@ -8804,7 +8147,7 @@
       <c r="I349" s="10"/>
       <c r="J349" s="5"/>
     </row>
-    <row r="350" ht="15.75" spans="1:10">
+    <row r="350" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A350" s="10"/>
       <c r="B350" s="11"/>
       <c r="C350" s="11"/>
@@ -8816,7 +8159,7 @@
       <c r="I350" s="10"/>
       <c r="J350" s="5"/>
     </row>
-    <row r="351" ht="15.75" spans="1:10">
+    <row r="351" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A351" s="10"/>
       <c r="B351" s="11"/>
       <c r="C351" s="11"/>
@@ -8828,7 +8171,7 @@
       <c r="I351" s="10"/>
       <c r="J351" s="5"/>
     </row>
-    <row r="352" ht="15.75" spans="1:10">
+    <row r="352" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A352" s="10"/>
       <c r="B352" s="11"/>
       <c r="C352" s="11"/>
@@ -8840,7 +8183,7 @@
       <c r="I352" s="10"/>
       <c r="J352" s="5"/>
     </row>
-    <row r="353" ht="15.75" spans="1:10">
+    <row r="353" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A353" s="10"/>
       <c r="B353" s="11"/>
       <c r="C353" s="11"/>
@@ -8852,7 +8195,7 @@
       <c r="I353" s="10"/>
       <c r="J353" s="5"/>
     </row>
-    <row r="354" ht="15.75" spans="1:10">
+    <row r="354" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A354" s="10"/>
       <c r="B354" s="11"/>
       <c r="C354" s="11"/>
@@ -8864,7 +8207,7 @@
       <c r="I354" s="10"/>
       <c r="J354" s="5"/>
     </row>
-    <row r="355" ht="15.75" spans="1:10">
+    <row r="355" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A355" s="10"/>
       <c r="B355" s="11"/>
       <c r="C355" s="11"/>
@@ -8876,7 +8219,7 @@
       <c r="I355" s="10"/>
       <c r="J355" s="5"/>
     </row>
-    <row r="356" ht="15.75" spans="1:10">
+    <row r="356" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A356" s="10"/>
       <c r="B356" s="11"/>
       <c r="C356" s="11"/>
@@ -8888,7 +8231,7 @@
       <c r="I356" s="10"/>
       <c r="J356" s="5"/>
     </row>
-    <row r="357" ht="15.75" spans="1:10">
+    <row r="357" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A357" s="10"/>
       <c r="B357" s="11"/>
       <c r="C357" s="11"/>
@@ -8900,7 +8243,7 @@
       <c r="I357" s="10"/>
       <c r="J357" s="5"/>
     </row>
-    <row r="358" ht="15.75" spans="1:10">
+    <row r="358" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A358" s="10"/>
       <c r="B358" s="11"/>
       <c r="C358" s="11"/>
@@ -8912,7 +8255,7 @@
       <c r="I358" s="10"/>
       <c r="J358" s="5"/>
     </row>
-    <row r="359" ht="15.75" spans="1:10">
+    <row r="359" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A359" s="10"/>
       <c r="B359" s="11"/>
       <c r="C359" s="11"/>
@@ -8924,7 +8267,7 @@
       <c r="I359" s="10"/>
       <c r="J359" s="5"/>
     </row>
-    <row r="360" ht="15.75" spans="1:10">
+    <row r="360" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A360" s="10"/>
       <c r="B360" s="13"/>
       <c r="C360" s="13"/>
@@ -8936,7 +8279,7 @@
       <c r="I360" s="10"/>
       <c r="J360" s="5"/>
     </row>
-    <row r="361" ht="15.75" spans="1:10">
+    <row r="361" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A361" s="10"/>
       <c r="B361" s="11"/>
       <c r="C361" s="11"/>
@@ -8948,7 +8291,7 @@
       <c r="I361" s="10"/>
       <c r="J361" s="5"/>
     </row>
-    <row r="362" ht="15.75" spans="1:10">
+    <row r="362" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A362" s="10"/>
       <c r="B362" s="11"/>
       <c r="C362" s="11"/>
@@ -8960,7 +8303,7 @@
       <c r="I362" s="10"/>
       <c r="J362" s="5"/>
     </row>
-    <row r="363" ht="15.75" spans="1:10">
+    <row r="363" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A363" s="10"/>
       <c r="B363" s="13"/>
       <c r="C363" s="13"/>
@@ -8972,7 +8315,7 @@
       <c r="I363" s="10"/>
       <c r="J363" s="5"/>
     </row>
-    <row r="364" ht="15.75" spans="1:10">
+    <row r="364" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A364" s="10"/>
       <c r="B364" s="11"/>
       <c r="C364" s="11"/>
@@ -8984,7 +8327,7 @@
       <c r="I364" s="10"/>
       <c r="J364" s="5"/>
     </row>
-    <row r="365" ht="15.75" spans="1:10">
+    <row r="365" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A365" s="10"/>
       <c r="B365" s="11"/>
       <c r="C365" s="11"/>
@@ -8996,7 +8339,7 @@
       <c r="I365" s="10"/>
       <c r="J365" s="5"/>
     </row>
-    <row r="366" ht="15.75" spans="1:10">
+    <row r="366" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A366" s="10"/>
       <c r="B366" s="11"/>
       <c r="C366" s="11"/>
@@ -9008,7 +8351,7 @@
       <c r="I366" s="10"/>
       <c r="J366" s="5"/>
     </row>
-    <row r="367" ht="15.75" spans="1:10">
+    <row r="367" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A367" s="10"/>
       <c r="B367" s="11"/>
       <c r="C367" s="11"/>
@@ -9020,7 +8363,7 @@
       <c r="I367" s="10"/>
       <c r="J367" s="5"/>
     </row>
-    <row r="368" ht="15.75" spans="1:10">
+    <row r="368" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A368" s="10"/>
       <c r="B368" s="11"/>
       <c r="C368" s="11"/>
@@ -9032,7 +8375,7 @@
       <c r="I368" s="10"/>
       <c r="J368" s="5"/>
     </row>
-    <row r="369" ht="15.75" spans="1:10">
+    <row r="369" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A369" s="10"/>
       <c r="B369" s="11"/>
       <c r="C369" s="11"/>
@@ -9044,7 +8387,7 @@
       <c r="I369" s="10"/>
       <c r="J369" s="5"/>
     </row>
-    <row r="370" ht="15.75" spans="1:10">
+    <row r="370" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A370" s="10"/>
       <c r="B370" s="13"/>
       <c r="C370" s="13"/>
@@ -9056,7 +8399,7 @@
       <c r="I370" s="10"/>
       <c r="J370" s="5"/>
     </row>
-    <row r="371" ht="15.75" spans="1:10">
+    <row r="371" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A371" s="10"/>
       <c r="B371" s="11"/>
       <c r="C371" s="11"/>
@@ -9068,7 +8411,7 @@
       <c r="I371" s="10"/>
       <c r="J371" s="5"/>
     </row>
-    <row r="372" ht="15.75" spans="1:10">
+    <row r="372" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A372" s="10"/>
       <c r="B372" s="11"/>
       <c r="C372" s="11"/>
@@ -9080,7 +8423,7 @@
       <c r="I372" s="10"/>
       <c r="J372" s="5"/>
     </row>
-    <row r="373" ht="15.75" spans="1:10">
+    <row r="373" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A373" s="10"/>
       <c r="B373" s="11"/>
       <c r="C373" s="11"/>
@@ -9092,7 +8435,7 @@
       <c r="I373" s="10"/>
       <c r="J373" s="5"/>
     </row>
-    <row r="374" ht="15.75" spans="1:10">
+    <row r="374" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A374" s="10"/>
       <c r="B374" s="11"/>
       <c r="C374" s="11"/>
@@ -9104,7 +8447,7 @@
       <c r="I374" s="10"/>
       <c r="J374" s="5"/>
     </row>
-    <row r="375" ht="15.75" spans="1:10">
+    <row r="375" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A375" s="10"/>
       <c r="B375" s="11"/>
       <c r="C375" s="11"/>
@@ -9116,7 +8459,7 @@
       <c r="I375" s="10"/>
       <c r="J375" s="5"/>
     </row>
-    <row r="376" ht="15.75" spans="1:10">
+    <row r="376" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A376" s="10"/>
       <c r="B376" s="11"/>
       <c r="C376" s="11"/>
@@ -9128,7 +8471,7 @@
       <c r="I376" s="10"/>
       <c r="J376" s="5"/>
     </row>
-    <row r="377" ht="15.75" spans="1:10">
+    <row r="377" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A377" s="10"/>
       <c r="B377" s="11"/>
       <c r="C377" s="11"/>
@@ -9140,7 +8483,7 @@
       <c r="I377" s="10"/>
       <c r="J377" s="5"/>
     </row>
-    <row r="378" ht="15.75" spans="1:10">
+    <row r="378" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A378" s="10"/>
       <c r="B378" s="11"/>
       <c r="C378" s="11"/>
@@ -9152,7 +8495,7 @@
       <c r="I378" s="10"/>
       <c r="J378" s="5"/>
     </row>
-    <row r="379" ht="15.75" spans="1:10">
+    <row r="379" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A379" s="10"/>
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
@@ -9164,7 +8507,7 @@
       <c r="I379" s="10"/>
       <c r="J379" s="5"/>
     </row>
-    <row r="380" ht="15.75" spans="1:10">
+    <row r="380" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A380" s="10"/>
       <c r="B380" s="11"/>
       <c r="C380" s="11"/>
@@ -9176,7 +8519,7 @@
       <c r="I380" s="10"/>
       <c r="J380" s="5"/>
     </row>
-    <row r="381" ht="15.75" spans="1:10">
+    <row r="381" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A381" s="10"/>
       <c r="B381" s="11"/>
       <c r="C381" s="11"/>
@@ -9184,7 +8527,7 @@
       <c r="I381" s="10"/>
       <c r="J381" s="5"/>
     </row>
-    <row r="382" ht="15.75" spans="1:10">
+    <row r="382" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A382" s="10"/>
       <c r="B382" s="11"/>
       <c r="C382" s="11"/>
@@ -9196,7 +8539,7 @@
       <c r="I382" s="10"/>
       <c r="J382" s="5"/>
     </row>
-    <row r="383" ht="15.75" spans="1:10">
+    <row r="383" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A383" s="10"/>
       <c r="B383" s="11"/>
       <c r="C383" s="11"/>
@@ -9205,7 +8548,7 @@
       <c r="I383" s="10"/>
       <c r="J383" s="5"/>
     </row>
-    <row r="384" ht="15.75" spans="1:10">
+    <row r="384" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A384" s="10"/>
       <c r="B384" s="13"/>
       <c r="C384" s="13"/>
@@ -9214,7 +8557,7 @@
       <c r="I384" s="10"/>
       <c r="J384" s="5"/>
     </row>
-    <row r="385" ht="15.75" spans="1:10">
+    <row r="385" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A385" s="10"/>
       <c r="B385" s="11"/>
       <c r="C385" s="11"/>
@@ -9223,7 +8566,7 @@
       <c r="I385" s="10"/>
       <c r="J385" s="5"/>
     </row>
-    <row r="386" ht="15.75" spans="1:10">
+    <row r="386" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A386" s="10"/>
       <c r="B386" s="11"/>
       <c r="C386" s="11"/>
@@ -9235,7 +8578,7 @@
       <c r="I386" s="10"/>
       <c r="J386" s="5"/>
     </row>
-    <row r="387" ht="15.75" spans="1:10">
+    <row r="387" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A387" s="10"/>
       <c r="B387" s="11"/>
       <c r="C387" s="11"/>
@@ -9247,7 +8590,7 @@
       <c r="I387" s="10"/>
       <c r="J387" s="5"/>
     </row>
-    <row r="388" ht="15.75" spans="1:10">
+    <row r="388" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A388" s="10"/>
       <c r="B388" s="11"/>
       <c r="C388" s="11"/>
@@ -9259,7 +8602,7 @@
       <c r="I388" s="10"/>
       <c r="J388" s="5"/>
     </row>
-    <row r="389" ht="15.75" spans="1:10">
+    <row r="389" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A389" s="10"/>
       <c r="B389" s="11"/>
       <c r="C389" s="11"/>
@@ -9271,7 +8614,7 @@
       <c r="I389" s="10"/>
       <c r="J389" s="5"/>
     </row>
-    <row r="390" ht="15.75" spans="1:10">
+    <row r="390" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A390" s="10"/>
       <c r="B390" s="11"/>
       <c r="C390" s="11"/>
@@ -9283,7 +8626,7 @@
       <c r="I390" s="10"/>
       <c r="J390" s="5"/>
     </row>
-    <row r="391" ht="15.75" spans="1:10">
+    <row r="391" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A391" s="10"/>
       <c r="B391" s="11"/>
       <c r="C391" s="11"/>
@@ -9295,7 +8638,7 @@
       <c r="I391" s="10"/>
       <c r="J391" s="5"/>
     </row>
-    <row r="392" ht="15.75" spans="1:10">
+    <row r="392" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A392" s="10"/>
       <c r="B392" s="11"/>
       <c r="C392" s="11"/>
@@ -9307,7 +8650,7 @@
       <c r="I392" s="10"/>
       <c r="J392" s="5"/>
     </row>
-    <row r="393" ht="15.75" spans="1:10">
+    <row r="393" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A393" s="10"/>
       <c r="B393" s="11"/>
       <c r="C393" s="11"/>
@@ -9319,7 +8662,7 @@
       <c r="I393" s="10"/>
       <c r="J393" s="5"/>
     </row>
-    <row r="394" ht="15.75" spans="1:10">
+    <row r="394" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A394" s="10"/>
       <c r="B394" s="11"/>
       <c r="C394" s="11"/>
@@ -9331,7 +8674,7 @@
       <c r="I394" s="10"/>
       <c r="J394" s="5"/>
     </row>
-    <row r="395" ht="15.75" spans="1:10">
+    <row r="395" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A395" s="10"/>
       <c r="B395" s="11"/>
       <c r="C395" s="11"/>
@@ -9343,7 +8686,7 @@
       <c r="I395" s="10"/>
       <c r="J395" s="5"/>
     </row>
-    <row r="396" ht="15.75" spans="1:10">
+    <row r="396" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A396" s="10"/>
       <c r="B396" s="11"/>
       <c r="C396" s="11"/>
@@ -9355,7 +8698,7 @@
       <c r="I396" s="10"/>
       <c r="J396" s="5"/>
     </row>
-    <row r="397" ht="15.75" spans="1:10">
+    <row r="397" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A397" s="10"/>
       <c r="B397" s="11"/>
       <c r="C397" s="11"/>
@@ -9367,7 +8710,7 @@
       <c r="I397" s="10"/>
       <c r="J397" s="5"/>
     </row>
-    <row r="398" ht="15.75" spans="1:10">
+    <row r="398" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A398" s="10"/>
       <c r="B398" s="11"/>
       <c r="C398" s="11"/>
@@ -9379,7 +8722,7 @@
       <c r="I398" s="10"/>
       <c r="J398" s="5"/>
     </row>
-    <row r="399" ht="15.75" spans="1:10">
+    <row r="399" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A399" s="10"/>
       <c r="B399" s="11"/>
       <c r="C399" s="11"/>
@@ -9391,7 +8734,7 @@
       <c r="I399" s="10"/>
       <c r="J399" s="5"/>
     </row>
-    <row r="400" ht="15.75" spans="1:10">
+    <row r="400" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A400" s="10"/>
       <c r="B400" s="11"/>
       <c r="C400" s="11"/>
@@ -9403,7 +8746,7 @@
       <c r="I400" s="10"/>
       <c r="J400" s="5"/>
     </row>
-    <row r="401" ht="15.75" spans="1:10">
+    <row r="401" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A401" s="10"/>
       <c r="B401" s="11"/>
       <c r="C401" s="11"/>
@@ -9415,7 +8758,7 @@
       <c r="I401" s="10"/>
       <c r="J401" s="5"/>
     </row>
-    <row r="402" ht="15.75" spans="1:10">
+    <row r="402" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A402" s="10"/>
       <c r="B402" s="11"/>
       <c r="C402" s="11"/>
@@ -9427,7 +8770,7 @@
       <c r="I402" s="10"/>
       <c r="J402" s="5"/>
     </row>
-    <row r="403" ht="15.75" spans="1:10">
+    <row r="403" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A403" s="10"/>
       <c r="B403" s="11"/>
       <c r="C403" s="11"/>
@@ -9439,7 +8782,7 @@
       <c r="I403" s="10"/>
       <c r="J403" s="5"/>
     </row>
-    <row r="404" ht="15.75" spans="1:10">
+    <row r="404" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A404" s="10"/>
       <c r="B404" s="11"/>
       <c r="C404" s="11"/>
@@ -9451,7 +8794,7 @@
       <c r="I404" s="10"/>
       <c r="J404" s="5"/>
     </row>
-    <row r="405" ht="15.75" spans="1:10">
+    <row r="405" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A405" s="10"/>
       <c r="B405" s="11"/>
       <c r="C405" s="11"/>
@@ -9463,7 +8806,7 @@
       <c r="I405" s="10"/>
       <c r="J405" s="5"/>
     </row>
-    <row r="406" ht="15.75" spans="1:10">
+    <row r="406" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A406" s="10"/>
       <c r="B406" s="11"/>
       <c r="C406" s="11"/>
@@ -9475,7 +8818,7 @@
       <c r="I406" s="10"/>
       <c r="J406" s="5"/>
     </row>
-    <row r="407" ht="15.75" spans="1:10">
+    <row r="407" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A407" s="10"/>
       <c r="B407" s="11"/>
       <c r="C407" s="11"/>
@@ -9487,7 +8830,7 @@
       <c r="I407" s="10"/>
       <c r="J407" s="5"/>
     </row>
-    <row r="408" ht="15.75" spans="1:10">
+    <row r="408" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A408" s="10"/>
       <c r="B408" s="11"/>
       <c r="C408" s="11"/>
@@ -9499,7 +8842,7 @@
       <c r="I408" s="10"/>
       <c r="J408" s="5"/>
     </row>
-    <row r="409" ht="15.75" spans="1:10">
+    <row r="409" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A409" s="10"/>
       <c r="B409" s="11"/>
       <c r="C409" s="11"/>
@@ -9511,7 +8854,7 @@
       <c r="I409" s="10"/>
       <c r="J409" s="5"/>
     </row>
-    <row r="410" ht="15.75" spans="1:10">
+    <row r="410" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A410" s="10"/>
       <c r="B410" s="11"/>
       <c r="C410" s="11"/>
@@ -9523,7 +8866,7 @@
       <c r="I410" s="10"/>
       <c r="J410" s="5"/>
     </row>
-    <row r="411" ht="15.75" spans="1:10">
+    <row r="411" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A411" s="10"/>
       <c r="B411" s="11"/>
       <c r="C411" s="11"/>
@@ -9535,7 +8878,7 @@
       <c r="I411" s="10"/>
       <c r="J411" s="5"/>
     </row>
-    <row r="412" ht="15.75" spans="1:10">
+    <row r="412" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A412" s="10"/>
       <c r="B412" s="11"/>
       <c r="C412" s="11"/>
@@ -9547,7 +8890,7 @@
       <c r="I412" s="10"/>
       <c r="J412" s="5"/>
     </row>
-    <row r="413" ht="15.75" spans="1:10">
+    <row r="413" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A413" s="10"/>
       <c r="B413" s="11"/>
       <c r="C413" s="11"/>
@@ -9560,11 +8903,9 @@
       <c r="J413" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A413">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:A413" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>